--- a/Files/college_info/all_colleges/KMIT/KMIT_placements.xlsx
+++ b/Files/college_info/all_colleges/KMIT/KMIT_placements.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\KMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21EBBC2B-6831-47B4-9041-CD6F1D656D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1837F-2012-47A4-BDA3-1B1410B71502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56E08E45-69DD-4B62-9962-64DE03E859DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$111</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Amazon</t>
   </si>
@@ -356,6 +359,27 @@
   </si>
   <si>
     <t>OFFERS</t>
+  </si>
+  <si>
+    <t>NCR-2</t>
+  </si>
+  <si>
+    <t>TCP Wave-2</t>
+  </si>
+  <si>
+    <t>Zensar Technologies-2</t>
+  </si>
+  <si>
+    <t>NCR-3</t>
+  </si>
+  <si>
+    <t>Netcracker-3</t>
+  </si>
+  <si>
+    <t>Virtusa-2</t>
+  </si>
+  <si>
+    <t>Hexaware-2</t>
   </si>
 </sst>
 </file>
@@ -461,7 +485,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -773,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3660C3-A7E1-4D5A-8BFB-0F2A739E27AB}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:XFD215"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -804,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>38.1</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.2" thickBot="1">
@@ -818,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.2" thickBot="1">
@@ -832,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>38.1</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -986,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -1168,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1">
         <v>8</v>
@@ -1224,7 +1259,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1">
         <v>7</v>
@@ -1322,7 +1357,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1">
         <v>6.5</v>
@@ -1364,7 +1399,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1">
         <v>6</v>
@@ -1392,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>6</v>
@@ -1826,7 +1861,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
@@ -2340,6 +2375,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C111" xr:uid="{8E3660C3-A7E1-4D5A-8BFB-0F2A739E27AB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D111">
+      <sortCondition descending="1" ref="C1:C111"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
